--- a/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
+++ b/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\Keele_F_Reed_C-P0\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FB830-563F-484E-A3F6-E2A822108B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941CD6D-375A-4AC8-91DA-98AB39DD482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1065" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{022B787D-45AC-4743-9C03-998D2CE48FCF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -109,16 +109,19 @@
     <t>Pencils</t>
   </si>
   <si>
+    <t>MouseTraps</t>
+  </si>
+  <si>
+    <t>Burrito</t>
+  </si>
+  <si>
+    <t>Salsa</t>
+  </si>
+  <si>
+    <t>Powerade</t>
+  </si>
+  <si>
     <t>Pickles</t>
-  </si>
-  <si>
-    <t>MouseTraps</t>
-  </si>
-  <si>
-    <t>Burrito</t>
-  </si>
-  <si>
-    <t>Salsa</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D08D3-1D91-4FD2-BDB6-9D61C099D0F4}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +736,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>52</v>
@@ -744,7 +747,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -755,7 +758,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>45</v>
@@ -766,13 +769,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
+++ b/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\Keele_F_Reed_C-P0\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941CD6D-375A-4AC8-91DA-98AB39DD482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06E4D3-E86C-4392-AD16-DE2FB89D5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1065" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{022B787D-45AC-4743-9C03-998D2CE48FCF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Vendors</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Pickles</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D08D3-1D91-4FD2-BDB6-9D61C099D0F4}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -789,6 +792,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
+++ b/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\Keele_F_Reed_C-P0\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06E4D3-E86C-4392-AD16-DE2FB89D5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE741204-C69F-44FE-9753-4CBFE1E62560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1065" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{022B787D-45AC-4743-9C03-998D2CE48FCF}"/>
+    <workbookView xWindow="34050" yWindow="2235" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{F4236B19-7541-4217-B15A-2AE45B59E4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>InventoryAmt</t>
+  </si>
+  <si>
+    <t>CostPerUnit</t>
+  </si>
+  <si>
+    <t>Waffles</t>
+  </si>
+  <si>
+    <t>Flatscreen</t>
+  </si>
+  <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Legos</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>FruitSnacks</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>HDMICable</t>
+  </si>
+  <si>
+    <t>Pencils</t>
+  </si>
+  <si>
+    <t>Pickles</t>
+  </si>
+  <si>
+    <t>MouseTraps</t>
+  </si>
+  <si>
+    <t>Burrito</t>
+  </si>
+  <si>
+    <t>Salsa</t>
+  </si>
+  <si>
+    <t>Powerade</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
   <si>
     <t>Vendors</t>
   </si>
@@ -53,88 +122,12 @@
   </si>
   <si>
     <t>Costco</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>InventoryAmt</t>
-  </si>
-  <si>
-    <t>CostPerUnit</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Waffles</t>
-  </si>
-  <si>
-    <t>Flatscreen</t>
-  </si>
-  <si>
-    <t>Cups</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Headphones</t>
-  </si>
-  <si>
-    <t>Legos</t>
-  </si>
-  <si>
-    <t>Lemonade</t>
-  </si>
-  <si>
-    <t>Clothes</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>FruitSnacks</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>HDMICable</t>
-  </si>
-  <si>
-    <t>Pencils</t>
-  </si>
-  <si>
-    <t>MouseTraps</t>
-  </si>
-  <si>
-    <t>Burrito</t>
-  </si>
-  <si>
-    <t>Salsa</t>
-  </si>
-  <si>
-    <t>Powerade</t>
-  </si>
-  <si>
-    <t>Pickles</t>
-  </si>
-  <si>
-    <t>Yogurt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,11 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,63 +474,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A03404-36EE-4B72-9DE5-660E87F9062A}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4ABA73-91D3-4DA3-B198-9182C2333C13}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3 A3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -547,264 +519,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D08D3-1D91-4FD2-BDB6-9D61C099D0F4}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0193F-ABB7-4F19-AF09-23C03AE5F842}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="C21">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
+++ b/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\Keele_F_Reed_C-P0\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE741204-C69F-44FE-9753-4CBFE1E62560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A7D34-C22A-4F69-9E88-E8C668CB92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="2235" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{F4236B19-7541-4217-B15A-2AE45B59E4B7}"/>
+    <workbookView xWindow="6360" yWindow="1320" windowWidth="21600" windowHeight="11835" xr2:uid="{F4236B19-7541-4217-B15A-2AE45B59E4B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kmart" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,93 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Inventory</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>InventoryAmt</t>
+    <t>Price</t>
   </si>
   <si>
-    <t>CostPerUnit</t>
+    <t>Stock</t>
   </si>
   <si>
-    <t>Waffles</t>
-  </si>
-  <si>
-    <t>Flatscreen</t>
-  </si>
-  <si>
-    <t>Cups</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Headphones</t>
-  </si>
-  <si>
-    <t>Legos</t>
-  </si>
-  <si>
-    <t>Lemonade</t>
-  </si>
-  <si>
-    <t>Clothes</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>FruitSnacks</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>HDMICable</t>
-  </si>
-  <si>
-    <t>Pencils</t>
-  </si>
-  <si>
-    <t>Pickles</t>
-  </si>
-  <si>
-    <t>MouseTraps</t>
-  </si>
-  <si>
-    <t>Burrito</t>
-  </si>
-  <si>
-    <t>Salsa</t>
-  </si>
-  <si>
-    <t>Powerade</t>
-  </si>
-  <si>
-    <t>Yogurt</t>
-  </si>
-  <si>
-    <t>Vendors</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Squiggly Mart</t>
-  </si>
-  <si>
-    <t>Costco</t>
+    <t>Chicken</t>
   </si>
 </sst>
 </file>
@@ -157,10 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,57 +396,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4ABA73-91D3-4DA3-B198-9182C2333C13}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017B3F72-490A-454E-B97E-EFF23051D204}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0193F-ABB7-4F19-AF09-23C03AE5F842}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -544,219 +419,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>52</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
+++ b/Keele_F_Reed_C-P0/ExcelSheets/VendorList&Inventory.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\Keele_F_Reed_C-P0\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A7D34-C22A-4F69-9E88-E8C668CB92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF696D-6353-4B20-8D53-F00501229A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1320" windowWidth="21600" windowHeight="11835" xr2:uid="{F4236B19-7541-4217-B15A-2AE45B59E4B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F4236B19-7541-4217-B15A-2AE45B59E4B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kmart" sheetId="4" r:id="rId1"/>
+    <sheet name="walmart" sheetId="7" r:id="rId1"/>
+    <sheet name="costco" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Item</t>
   </si>
@@ -45,7 +46,7 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Chicken</t>
+    <t>water</t>
   </si>
 </sst>
 </file>
@@ -396,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017B3F72-490A-454E-B97E-EFF23051D204}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D808221-A952-41B6-BA23-2B6A902C581A}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,15 +415,41 @@
         <v>2</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B64D5-176D-402B-8EF8-4C1776A20037}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
